--- a/Aptitudes_cultivos/data_web.xlsx
+++ b/Aptitudes_cultivos/data_web.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guill\Documents\GitHub\project\Aptitudes_cultivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B86A28CA-1A61-48E8-917E-67939F235EED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B0CB16-60AB-4DA0-8C26-44071E970261}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
-    <sheet name="2" sheetId="2" r:id="rId2"/>
-    <sheet name="excluidos" sheetId="3" r:id="rId3"/>
+    <sheet name="3" sheetId="4" r:id="rId2"/>
+    <sheet name="2" sheetId="2" r:id="rId3"/>
+    <sheet name="excluidos" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="116">
   <si>
     <t>Aptitud aguacate (Persea americana) var. Hass</t>
   </si>
@@ -190,9 +191,6 @@
     <t>departamentos</t>
   </si>
   <si>
-    <t>Todos</t>
-  </si>
-  <si>
     <t>Amazonas</t>
   </si>
   <si>
@@ -287,13 +285,109 @@
   </si>
   <si>
     <t>Vichada</t>
+  </si>
+  <si>
+    <t>Aguacate (Persea americana) var. Hass</t>
+  </si>
+  <si>
+    <t>Ají tabasco (Capsicum frutescens)</t>
+  </si>
+  <si>
+    <t>Algodón (Gossypium hirsutum) semestre I</t>
+  </si>
+  <si>
+    <t>Algodón (Gossypium hirsutum) semestre II</t>
+  </si>
+  <si>
+    <t>Arroz (Oryza sativa L.) secano mecanizado</t>
+  </si>
+  <si>
+    <t>Banano (Musa sp. AAA)</t>
+  </si>
+  <si>
+    <t>Cacao (Theobroma cacao L.)</t>
+  </si>
+  <si>
+    <t>Caña panelera (Saccharum officinarum L.)</t>
+  </si>
+  <si>
+    <t>Caucho (Hevea brasiliensis)</t>
+  </si>
+  <si>
+    <t>Cebolla bulbo (Allium cepa L.) semestre I</t>
+  </si>
+  <si>
+    <t>Cebolla bulbo (Allium cepa L.) semestre II</t>
+  </si>
+  <si>
+    <t>Fresa (Fragaria x ananassa D.)</t>
+  </si>
+  <si>
+    <t>Maíz (Zea mays L.) tecnificado de clima cálido semestre I</t>
+  </si>
+  <si>
+    <t>Maíz (Zea mays L.) tecnificado de clima cálido semestre II</t>
+  </si>
+  <si>
+    <t>Mango (Mangifera indica)</t>
+  </si>
+  <si>
+    <t>Palma de aceite (Elaeis guineensis)</t>
+  </si>
+  <si>
+    <t>Papa (Solanum tuberosum L.) Diacol Capiro semestre I</t>
+  </si>
+  <si>
+    <t>Papa (Solanum tuberosum L.) Diacol Capiro semestre II</t>
+  </si>
+  <si>
+    <t>Papa (Solanum tuberosum L.) semestre I</t>
+  </si>
+  <si>
+    <t>Papa (Solanum tuberosum L.) semestre II</t>
+  </si>
+  <si>
+    <t>Papaya (Carica papaya L.) híbrido Tainung</t>
+  </si>
+  <si>
+    <t>Pasto humidícola (Brachiaria humidicola)</t>
+  </si>
+  <si>
+    <t>Pastos angleton (Dichantium Aristatum) y climacuna (Dichantium Anulatum)</t>
+  </si>
+  <si>
+    <t>Pastos braquiaria común y basilisk (Brachiaria decumbens) y otros</t>
+  </si>
+  <si>
+    <t>Pastos estrella (Cynodon nlemfuensis) y otros</t>
+  </si>
+  <si>
+    <t>Pastos guinea común (Megathyrsus maximus) y otros</t>
+  </si>
+  <si>
+    <t>Pastos kikuyo (Cenchrus clandestinus)</t>
+  </si>
+  <si>
+    <t>Pastos pará o admirable (Brachiaria mutica) y otros</t>
+  </si>
+  <si>
+    <t>Pastos raygrass anual (Lolium multiflorum) y otros</t>
+  </si>
+  <si>
+    <t>Pimentón (Capsicum annuum)</t>
+  </si>
+  <si>
+    <t>Piña (Anannas comosus L. Mer.) híbrido MD-2</t>
+  </si>
+  <si>
+    <t>Plantaciones Forestales</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -427,6 +521,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF6D6E70"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -770,8 +876,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1138,10 +1250,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A36"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1306,25 +1418,31 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>39</v>
       </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B41" s="1"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B42" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1333,183 +1451,178 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{810B392C-D3C2-4EC9-BC70-531D800AABD1}">
+  <dimension ref="A1:A33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>66</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>67</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>70</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>72</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>76</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>78</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>79</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>80</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>52</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -1518,6 +1631,219 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>81</v>
+      </c>
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>82</v>
+      </c>
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>83</v>
+      </c>
+      <c r="B33" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{370F54E3-3EA3-4136-B22E-2216A78D6896}">
   <dimension ref="A1:A15"/>
   <sheetViews>
